--- a/biology/Botanique/Parodia_leninghausii/Parodia_leninghausii.xlsx
+++ b/biology/Botanique/Parodia_leninghausii/Parodia_leninghausii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parodia leninghausii est une espèce subtropicale du genre Parodia, famille des Cactaceae.
 Les producteurs de cactées Haage père et fils dédièrent ce cactus à son découvreur Wilhelm Lenninghaus (1845-1918), et non Leninghaus, sous le nom de Pilocereus leninghausii ; Karl Moritz Schumann rapporta ce nom et proposa de le rectifier en Echinocactus leninghausii (Monatsschrift für kakteenkunde, 1895, p. 147). Lenninghaus, fils de commerçant, quitta Ennepetal (Rhénanie-du-Nord-Westphalie) dans les années 1880 et émigra vers Porto Alegre où il se fit, sous le nom de Guillermo Lenninghaus, collecteur de cactées qu'il envoyait à la maison Haage d'Erfurt.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est appréciée, car elle présente de longs aiguillons dorés souples. Elle a un aspect sphérique puis colonnaire de faible hauteur (jusqu'à 1 m de hauteur et 12 cm de diamètre) avec environ 30 côtes.
 Les spécimens âgés deviennent buissonnants.
@@ -548,7 +562,9 @@
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme la plupart des cactus, demande un sol bien drainé, une exposition ensoleillée, des arrosages copieux en été et nuls en hiver.
 En climat tempéré, il est souhaitable de laisser les plantes dehors à la belle saison.
@@ -582,7 +598,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Notocactus leninghausii
 Echinocactus leninghausii
